--- a/问deepseek没用,拉个表看看.xlsx
+++ b/问deepseek没用,拉个表看看.xlsx
@@ -8,21 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一些资源\尝试汉化\mobmania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304831A-AC4D-434C-AD33-E8A4D63746E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE926F7B-DF0F-4708-986B-4E34A3596657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="暴击" sheetId="1" r:id="rId1"/>
+    <sheet name="想玩斩杀" sheetId="2" r:id="rId2"/>
+    <sheet name="模板" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +427,109 @@
   <si>
     <t>青柠(副武器)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊大概是
+4级加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片为
+0到4级加成不等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹大小+处决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹大小+斩杀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩杀几率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来堆范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级滚筒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>望远镜(需要暴击)1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风车4(最大需1.5子弹大小)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙女铃6(徽章)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然元素</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然元素要看对不对武器生效
+不对我就跑了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我可能还是推荐青柠,打boss用不了斩杀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实想不到还要堆什么了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以自己看着补0.11的暴击(约14BP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电电池7(徽章)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以换掉气球,或者继续堆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉鞋/巨人指环3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -473,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,17 +601,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="T73" sqref="T73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T6" sqref="T6:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -829,7 +947,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -870,10 +988,10 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="6"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -882,7 +1000,7 @@
       <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="U4" s="6"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -894,7 +1012,7 @@
       <c r="Q5" s="1">
         <v>-2</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -909,13 +1027,13 @@
       <c r="T6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -924,16 +1042,16 @@
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="L9" s="1">
         <v>0.5</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1373,27 +1491,27 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="6" t="s">
+      <c r="I65" s="6"/>
+      <c r="J65" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
       <c r="N65" s="5" t="s">
         <v>55</v>
       </c>
@@ -1401,24 +1519,24 @@
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
       <c r="N66" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
@@ -1472,21 +1590,21 @@
       <c r="A72" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
@@ -1645,19 +1763,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A65:D66"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:I66"/>
+    <mergeCell ref="J65:M66"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="U9:U10"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A73:F73"/>
     <mergeCell ref="A74:G74"/>
     <mergeCell ref="C67:E67"/>
-    <mergeCell ref="J65:M66"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="U1:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A65:D66"/>
-    <mergeCell ref="E65:G66"/>
-    <mergeCell ref="H65:I66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1667,12 +1785,455 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>30</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-5</v>
+      </c>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-5</v>
+      </c>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="N21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="13.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="N23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-14</v>
+      </c>
+      <c r="R30" s="1">
+        <v>-3</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="T3:T4"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1680,6 +2241,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAB80FE-1444-45D1-BF65-6E97F5AABA05}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>30</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="T3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U8" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/问deepseek没用,拉个表看看.xlsx
+++ b/问deepseek没用,拉个表看看.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一些资源\尝试汉化\mobmania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE926F7B-DF0F-4708-986B-4E34A3596657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B139314-5EB1-4985-919E-B19E2A6C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暴击" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,10 @@
   <si>
     <t>钉鞋/巨人指环3</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹钟不错,可以拿一点伤害换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,17 +608,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:T17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -947,7 +951,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -988,10 +992,10 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="7"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1000,7 +1004,7 @@
       <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -1012,7 +1016,7 @@
       <c r="Q5" s="1">
         <v>-2</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1027,13 +1031,13 @@
       <c r="T6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1042,7 +1046,7 @@
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1051,7 +1055,7 @@
       <c r="L9" s="1">
         <v>0.5</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1062,7 +1066,7 @@
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -1491,52 +1495,52 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="7" t="s">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7" t="s">
+      <c r="I65" s="8"/>
+      <c r="J65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="5" t="s">
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="5" t="s">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
@@ -1545,11 +1549,11 @@
       <c r="B67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="3" t="s">
         <v>53</v>
       </c>
@@ -1571,14 +1575,14 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="3" t="s">
         <v>36</v>
       </c>
@@ -1587,35 +1591,35 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
@@ -1751,7 +1755,7 @@
         <v>37.319296874999999</v>
       </c>
     </row>
-    <row r="81" spans="16:18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P81" s="1">
         <f>460*2.15*7.5*0.5*1.15</f>
         <v>4265.0625</v>
@@ -1761,21 +1765,26 @@
         <v>10.66265625</v>
       </c>
     </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
     <mergeCell ref="A65:D66"/>
     <mergeCell ref="E65:G66"/>
     <mergeCell ref="H65:I66"/>
     <mergeCell ref="J65:M66"/>
     <mergeCell ref="N65:P65"/>
     <mergeCell ref="N66:P66"/>
-    <mergeCell ref="U1:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="C67:E67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1787,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1853,10 +1862,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1900,8 +1909,8 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -1913,10 +1922,10 @@
       <c r="R3" s="1">
         <v>-1</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1931,8 +1940,8 @@
       <c r="R4" s="1">
         <v>-1</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -1944,7 +1953,7 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1956,7 +1965,7 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -1968,7 +1977,7 @@
       <c r="Q7" s="1">
         <v>-5</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D8" s="1">
@@ -1983,7 +1992,7 @@
       <c r="S8" s="1">
         <v>-2</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -2066,12 +2075,12 @@
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="N21" s="3" t="s">
         <v>85</v>
       </c>
@@ -2091,12 +2100,12 @@
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="N23" s="1">
         <v>0.5</v>
       </c>
@@ -2308,10 +2317,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2352,32 +2361,32 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U5" s="7"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U6" s="7"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U7" s="7"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U8" s="7"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="T12" s="3"/>

--- a/问deepseek没用,拉个表看看.xlsx
+++ b/问deepseek没用,拉个表看看.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一些资源\尝试汉化\mobmania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B139314-5EB1-4985-919E-B19E2A6C5D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8376CCE-E1FC-4E40-B11C-55C55A914438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暴击" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,11 @@
   <si>
     <t>闹钟不错,可以拿一点伤害换</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主武器不是覆盖性的高级滚筒可以换掉
+会影响前期其他类型伤害的出伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -612,10 +617,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -951,7 +956,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -992,10 +997,10 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="6"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1004,7 +1009,7 @@
       <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="U4" s="6"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -1016,7 +1021,7 @@
       <c r="Q5" s="1">
         <v>-2</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1031,13 +1036,13 @@
       <c r="T6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1046,7 +1051,7 @@
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1055,7 +1060,7 @@
       <c r="L9" s="1">
         <v>0.5</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1066,7 +1071,7 @@
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -1495,48 +1500,48 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6" t="s">
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7" t="s">
         <v>46</v>
       </c>
       <c r="I65" s="8"/>
-      <c r="J65" s="6" t="s">
+      <c r="J65" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="7" t="s">
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="7" t="s">
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="6" t="s">
         <v>56</v>
       </c>
       <c r="O66" s="8"/>
@@ -1549,11 +1554,11 @@
       <c r="B67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="3" t="s">
         <v>53</v>
       </c>
@@ -1575,14 +1580,14 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="3" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1596,7 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B72" s="8"/>
@@ -1601,7 +1606,7 @@
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B73" s="8"/>
@@ -1611,15 +1616,15 @@
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
@@ -1794,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -1862,10 +1867,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1909,8 +1914,8 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -1922,10 +1927,10 @@
       <c r="R3" s="1">
         <v>-1</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1940,8 +1945,8 @@
       <c r="R4" s="1">
         <v>-1</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -1953,7 +1958,7 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1965,7 +1970,7 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -1977,7 +1982,7 @@
       <c r="Q7" s="1">
         <v>-5</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D8" s="1">
@@ -1992,7 +1997,7 @@
       <c r="S8" s="1">
         <v>-2</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -2100,7 +2105,7 @@
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="8"/>
@@ -2236,12 +2241,29 @@
         <v>87</v>
       </c>
     </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="A32:E33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2317,10 +2339,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2361,32 +2383,32 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U5" s="6"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U6" s="6"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U7" s="6"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U8" s="6"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="T12" s="3"/>

--- a/问deepseek没用,拉个表看看.xlsx
+++ b/问deepseek没用,拉个表看看.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一些资源\尝试汉化\mobmania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8376CCE-E1FC-4E40-B11C-55C55A914438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE4EA4-1E7F-45D3-8C2B-FEBCDCD83B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暴击" sheetId="1" r:id="rId1"/>
     <sheet name="想玩斩杀" sheetId="2" r:id="rId2"/>
-    <sheet name="模板" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="眩晕" sheetId="6" r:id="rId3"/>
+    <sheet name="毒火双修" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子弹大小+处决</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>羁绊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -539,6 +536,84 @@
     <t>主武器不是覆盖性的高级滚筒可以换掉
 会影响前期其他类型伤害的出伤</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>然而大部分武器都不适配闹钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕以及特效
+这东西其实就
+主要看卡片羁绊
+和徽章了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒和燃烧应该
+也不吃暴击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕/特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒火双修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这玩意有一点
+看伤害的
+子弹大小就随便叠了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点不如叠点防御带枕头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这东西居然是影响这里的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但不吃暴击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具换枕头补攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5攻速约等于x1.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶→蛋白粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>望远镜→巨人戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡+35%暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子换望远镜,徽章+巨人戒指,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用药水补暴击和HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片换攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊600HP,不够用卡片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -619,11 +694,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -956,7 +1031,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -997,10 +1072,16 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="7"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1009,7 +1090,7 @@
       <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -1021,7 +1102,7 @@
       <c r="Q5" s="1">
         <v>-2</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1036,13 +1117,13 @@
       <c r="T6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1051,7 +1132,7 @@
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1060,7 +1141,7 @@
       <c r="L9" s="1">
         <v>0.5</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1287,7 +1368,7 @@
         <v>15.120000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -1305,13 +1386,13 @@
         <v>7938</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="P34" s="3">
         <f>1.35*2.1*7</f>
         <v>19.845000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -1326,25 +1407,25 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="P36" s="3">
         <f>1.1*2.2*7.5</f>
         <v>18.150000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="P38" s="3">
         <f>540*1.7*7</f>
         <v>6426</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="P39" s="3">
         <f>1.35*1.7*7</f>
         <v>16.064999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>34</v>
       </c>
@@ -1359,13 +1440,13 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="P41" s="3">
         <f>1.15*2.1*7.5</f>
         <v>18.112500000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -1380,13 +1461,13 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="P43" s="3">
         <f>1.15*2.15*7.5</f>
         <v>18.543749999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>35</v>
       </c>
@@ -1398,42 +1479,50 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="P46" s="3">
         <f>1.15*2.15*7.5*1.15</f>
         <v>21.325312499999999</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="Q47" s="1">
         <v>-24</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="F48" s="1">
+        <v>0.75</v>
+      </c>
       <c r="P48" s="3">
-        <f>460*2.15*7.5*1.75</f>
-        <v>12980.625</v>
-      </c>
+        <f>460*2.9*7.5</f>
+        <v>10005</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P49" s="3">
-        <f>1.15*2.15*7.5*1.75</f>
-        <v>32.451562500000001</v>
+        <f>1.15*2.9*7.5</f>
+        <v>25.012499999999996</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P51" s="3">
-        <f>460*2.15*7.5*1.15*1.75</f>
-        <v>14927.71875</v>
+        <f>460*2.9*7.5*1.15</f>
+        <v>11505.75</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P52" s="3">
-        <f>1.15*2.15*7.5*1.15*1.75</f>
-        <v>37.319296874999999</v>
+        <f>1.15*2.9*7.5*1.15</f>
+        <v>28.764374999999994</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
@@ -1462,8 +1551,8 @@
         <v>36</v>
       </c>
       <c r="P56" s="3">
-        <f>1210*2.15*7.5*0.5</f>
-        <v>9755.625</v>
+        <f>1210*1.65*7.5</f>
+        <v>14973.75</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
@@ -1471,8 +1560,8 @@
         <v>40</v>
       </c>
       <c r="P58" s="3">
-        <f>1210*2.15*7.5*1.25</f>
-        <v>24389.0625</v>
+        <f>1210*2.4*7.5</f>
+        <v>21780</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
@@ -1489,38 +1578,38 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P62" s="3">
-        <f>1210*2.15*7.5*0.5*1.15</f>
-        <v>11218.96875</v>
+        <f>1210*1.65*7.5*1.15</f>
+        <v>17219.8125</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P64" s="3">
-        <f>1210*2.15*7.5*1.25*1.15</f>
-        <v>28047.421874999996</v>
+        <f>1210*2.4*7.5*1.15</f>
+        <v>25046.999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="7" t="s">
+      <c r="I65" s="7"/>
+      <c r="J65" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="6" t="s">
         <v>55</v>
       </c>
@@ -1528,24 +1617,24 @@
       <c r="P65" s="6"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
@@ -1599,21 +1688,21 @@
       <c r="A72" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
@@ -1713,12 +1802,12 @@
         <v>36</v>
       </c>
       <c r="P77" s="1">
-        <f>460*2.15*7.5*1.75</f>
-        <v>12980.625</v>
+        <f>460*2.9*7.5</f>
+        <v>10005</v>
       </c>
       <c r="R77" s="1">
-        <f>1.15*2.15*7.5*1.75</f>
-        <v>32.451562500000001</v>
+        <f>1.15*2.9*7.5</f>
+        <v>25.012499999999996</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.15">
@@ -1729,12 +1818,12 @@
         <v>65</v>
       </c>
       <c r="P78" s="1">
-        <f>460*2.15*7.5*0.5</f>
-        <v>3708.75</v>
+        <f>460*1.65*7.5</f>
+        <v>5692.5</v>
       </c>
       <c r="R78" s="1">
-        <f>1.15*2.15*7.5*0.5</f>
-        <v>9.2718749999999996</v>
+        <f>1.15*1.65*7.5</f>
+        <v>14.231249999999998</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.15">
@@ -1752,33 +1841,94 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P80" s="1">
-        <f>460*2.15*7.5*1.75*1.15</f>
-        <v>14927.718749999998</v>
+        <f>460*2.9*7.5*1.15</f>
+        <v>11505.75</v>
       </c>
       <c r="R80" s="1">
-        <f>1.15*2.15*7.5*1.75*1.15</f>
-        <v>37.319296874999999</v>
+        <f>1.15*2.9*7.5*1.15</f>
+        <v>28.764374999999994</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P81" s="1">
-        <f>460*2.15*7.5*0.5*1.15</f>
-        <v>4265.0625</v>
+        <f>460*1.65*7.5*1.15</f>
+        <v>6546.3749999999991</v>
       </c>
       <c r="R81" s="1">
-        <f>1.15*2.15*7.5*0.5*1.15</f>
-        <v>10.66265625</v>
+        <f>1.15*1.65*7.5*1.15</f>
+        <v>16.365937499999998</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="A82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="7"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A84" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B91" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B92" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B93" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="C67:E67"/>
+  <mergeCells count="22">
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="A71:F71"/>
@@ -1790,6 +1940,17 @@
     <mergeCell ref="J65:M66"/>
     <mergeCell ref="N65:P65"/>
     <mergeCell ref="N66:P66"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -1820,7 +1981,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1853,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>31</v>
@@ -1867,10 +2028,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1914,12 +2075,18 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
       <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" s="1">
         <v>0.04</v>
@@ -1927,14 +2094,14 @@
       <c r="R3" s="1">
         <v>-1</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1946,11 +2113,11 @@
         <v>-1</v>
       </c>
       <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="1">
         <v>0.04</v>
@@ -1958,11 +2125,11 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O6" s="1">
         <v>0.04</v>
@@ -1970,11 +2137,11 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O7" s="1">
         <v>0.05</v>
@@ -1982,7 +2149,7 @@
       <c r="Q7" s="1">
         <v>-5</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D8" s="1">
@@ -1997,16 +2164,16 @@
       <c r="S8" s="1">
         <v>-2</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N10" s="1">
         <v>0.5</v>
@@ -2014,7 +2181,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1">
         <v>0.25</v>
@@ -2022,7 +2189,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1">
         <v>-0.5</v>
@@ -2037,7 +2204,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1">
         <v>0.08</v>
@@ -2048,7 +2215,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1">
         <v>0.06</v>
@@ -2059,7 +2226,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" s="1">
         <v>0.12</v>
@@ -2070,7 +2237,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1">
         <v>0.5</v>
@@ -2078,24 +2245,24 @@
     </row>
     <row r="21" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="N21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="1">
         <v>0.24</v>
@@ -2103,14 +2270,14 @@
     </row>
     <row r="23" spans="1:21" ht="13.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="N23" s="1">
         <v>0.5</v>
       </c>
@@ -2120,7 +2287,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N24" s="1">
         <v>0.3</v>
@@ -2128,7 +2295,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N25" s="1">
         <v>0.25</v>
@@ -2136,7 +2303,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N26" s="3">
         <v>0.65</v>
@@ -2147,7 +2314,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -2180,7 +2347,7 @@
         <v>9</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>31</v>
@@ -2238,12 +2405,12 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>92</v>
+      <c r="A32" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2257,8 +2424,25 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A34:E35"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="T1:T2"/>
@@ -2272,8 +2456,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAB80FE-1444-45D1-BF65-6E97F5AABA05}">
-  <dimension ref="A1:U12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831663F1-A7F9-430A-84FB-444118A60796}">
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
@@ -2294,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2339,10 +2523,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2383,41 +2567,70 @@
       <c r="Q2" s="1">
         <v>30</v>
       </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
       <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="7"/>
+      <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U5" s="7"/>
+      <c r="T5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T9" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T12" s="3"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T13" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="T12:T13"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="T9:T11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2426,6 +2639,180 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAB80FE-1444-45D1-BF65-6E97F5AABA05}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="T3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T6:T9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/问deepseek没用,拉个表看看.xlsx
+++ b/问deepseek没用,拉个表看看.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一些资源\尝试汉化\mobmania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DE4EA4-1E7F-45D3-8C2B-FEBCDCD83B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651239EC-5137-4DAE-ABBA-6B51B70A59FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暴击" sheetId="1" r:id="rId1"/>
     <sheet name="想玩斩杀" sheetId="2" r:id="rId2"/>
     <sheet name="眩晕" sheetId="6" r:id="rId3"/>
     <sheet name="毒火双修" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="防御" sheetId="8" r:id="rId5"/>
+    <sheet name="攻速+大小" sheetId="9" r:id="rId6"/>
+    <sheet name="攻速+伤害" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="171">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +617,267 @@
   <si>
     <t>羁绊600HP,不够用卡片</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先确保伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片x2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉鞋1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人戒指2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>法式吐司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐司3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方药</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不要可以删</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵药(消耗)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凑HP,但防御从卡片拿好点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片x6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊补血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然你也可以不要
+我想蹭蛋白粉加伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片x7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品的话用奶酪可以补</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>但我想挂机用线圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御挂机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然说有点亏
+但也还行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白粉4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>枕头5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘护甲6(徽章)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下的
+就可以自己补一点防御了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者堆一点暴击滚筒(</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击用药水给就行,+30%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP再高一点还可以
+换饰品补骰子+25%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后羁绊+12%,
+47%的暴击也能玩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>or招财猫+21%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者来玩元素大师</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像也可以</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶7(徽章)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后子弹大小换徽章补</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以多一个羁绊位装防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果+4%移速的话
+又可以换掉卡片堆防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>枕头2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品(但一般会选别的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风车3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其实要说,攻速50%
+只能到冷却66%的效果
+而100%为冷却50%
+150%为冷却40%
+200%为33%
+250为28.5%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>气球4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>望远镜5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电电池6(徽章)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙女铃铛7(徽章)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04+0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12+0.06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦对了这套还没伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还要补暴击,但补暴击也不如直接攻速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>但羁绊有直接加攻速...
+大小/暴击换攻速可是5:1.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>望远镜和暴击可以换掉,自行优化说是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>药水也是补攻速嘻嘻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要效率最大化就是补点暴击/子弹大小
+(才发现徽章没攻速)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">想要叠这个可要250%的子弹大小...
+要用望远镜可又要叠暴击了...
+这里还要补45%左右的大小
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1(灵药)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(某种意义是是攻/大
+还有一点暴伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者直接防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -650,19 +914,49 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -672,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,12 +986,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -969,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:E91"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -1031,7 +1346,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1058,7 +1373,7 @@
         <v>1.5</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -1078,10 +1393,10 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="U2" s="8"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="8"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1090,7 +1405,7 @@
       <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="U4" s="8"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -1102,7 +1417,7 @@
       <c r="Q5" s="1">
         <v>-2</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1117,13 +1432,13 @@
       <c r="T6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1132,7 +1447,7 @@
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
-      <c r="U8" s="8"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1141,7 +1456,7 @@
       <c r="L9" s="1">
         <v>0.5</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1152,7 +1467,7 @@
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
-      <c r="U10" s="6"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -1501,11 +1816,11 @@
         <f>460*2.9*7.5</f>
         <v>10005</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="R48" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P49" s="3">
@@ -1589,52 +1904,52 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="8" t="s">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="8" t="s">
+      <c r="I65" s="8"/>
+      <c r="J65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="6" t="s">
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="6" t="s">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
@@ -1643,11 +1958,11 @@
       <c r="B67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="3" t="s">
         <v>53</v>
       </c>
@@ -1669,14 +1984,14 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="3" t="s">
         <v>36</v>
       </c>
@@ -1685,35 +2000,35 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
@@ -1860,27 +2175,27 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="6" t="s">
+      <c r="B84" s="8"/>
+      <c r="C84" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
@@ -1896,39 +2211,49 @@
       <c r="A90" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="B90:E90"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="A71:F71"/>
@@ -1941,16 +2266,6 @@
     <mergeCell ref="N65:P65"/>
     <mergeCell ref="N66:P66"/>
     <mergeCell ref="R48:T48"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,7 +2278,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -2028,10 +2343,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2058,7 +2373,7 @@
         <v>1.5</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -2081,8 +2396,8 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -2094,10 +2409,10 @@
       <c r="R3" s="1">
         <v>-1</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -2112,8 +2427,8 @@
       <c r="R4" s="1">
         <v>-1</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="8"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -2125,7 +2440,7 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -2137,7 +2452,7 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -2149,7 +2464,7 @@
       <c r="Q7" s="1">
         <v>-5</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D8" s="1">
@@ -2164,7 +2479,7 @@
       <c r="S8" s="1">
         <v>-2</v>
       </c>
-      <c r="U8" s="8"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -2272,12 +2587,12 @@
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="N23" s="1">
         <v>0.5</v>
       </c>
@@ -2382,7 +2697,7 @@
         <v>5.5</v>
       </c>
       <c r="J30" s="1">
-        <v>1.24</v>
+        <v>0.24</v>
       </c>
       <c r="L30" s="1">
         <v>1.87</v>
@@ -2409,36 +2724,36 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2460,7 +2775,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -2523,10 +2838,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2553,7 +2868,7 @@
         <v>1.5</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -2573,55 +2888,55 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="8"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T7" s="7"/>
-      <c r="U7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T8" s="7"/>
-      <c r="U8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T10" s="7"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T11" s="7"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T12" s="6"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T13" s="6"/>
+      <c r="T13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2643,7 +2958,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -2706,10 +3021,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2736,7 +3051,7 @@
         <v>1.5</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -2756,40 +3071,40 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="8"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="8"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U5" s="8"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T9" s="8"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="T10" s="3" t="s">
@@ -2813,6 +3128,1422 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810CB5AB-49A2-4F60-B096-B5564993F2B0}">
+  <dimension ref="A1:U44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-6</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-5</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="1">
+        <v>210</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="13.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1">
+        <v>400</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1">
+        <v>200</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="6"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="1">
+        <v>240</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>-5</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="1">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-4</v>
+      </c>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="1">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C29" s="1">
+        <v>105</v>
+      </c>
+      <c r="D29" s="1">
+        <v>210</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-28</v>
+      </c>
+      <c r="R29" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2100</v>
+      </c>
+      <c r="N40" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>-4+9</f>
+        <v>5</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T24:T25"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E4C85B-BC88-41A1-9CD2-B370257F8641}">
+  <dimension ref="A1:U33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="T6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" ht="21.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="J9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="1">
+        <v>60</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="S11" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13">
+        <v>-2</v>
+      </c>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13">
+        <v>-2</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12">
+        <v>2.95</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="S22" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="1">
+        <v>60</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.339</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="N26" s="1">
+        <f>1+N27+N28+N29+N30+N31</f>
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-4</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="13">
+        <f>(N27+N28+N29+N30+N31)/5</f>
+        <v>0.33899999999999997</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="N28" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="N29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="N30" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="N31" s="12">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="20:21" x14ac:dyDescent="0.15">
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U33"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="T13:U18"/>
+    <mergeCell ref="T20:U21"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U25"/>
+    <mergeCell ref="T26:U30"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="A3:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278EAF9B-E9D4-4BDF-AD61-BBFC9710B5FE}">
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>34</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>10</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="T6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="J10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="1">
+        <v>60</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="S12" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="A4:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/问deepseek没用,拉个表看看.xlsx
+++ b/问deepseek没用,拉个表看看.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一些资源\尝试汉化\mobmania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651239EC-5137-4DAE-ABBA-6B51B70A59FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962A6B8-8357-4758-A476-4984BF68A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暴击" sheetId="1" r:id="rId1"/>
-    <sheet name="想玩斩杀" sheetId="2" r:id="rId2"/>
-    <sheet name="眩晕" sheetId="6" r:id="rId3"/>
-    <sheet name="毒火双修" sheetId="5" r:id="rId4"/>
-    <sheet name="防御" sheetId="8" r:id="rId5"/>
+    <sheet name="暴击全伤" sheetId="10" r:id="rId2"/>
+    <sheet name="想玩斩杀" sheetId="2" r:id="rId3"/>
+    <sheet name="眩晕" sheetId="6" r:id="rId4"/>
+    <sheet name="毒火双修" sheetId="5" r:id="rId5"/>
     <sheet name="攻速+大小" sheetId="9" r:id="rId6"/>
     <sheet name="攻速+伤害" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="攻速-投球手" sheetId="11" r:id="rId8"/>
+    <sheet name="模板" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="164">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,161 +625,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>先确保伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>卡片x2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>钉鞋1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨人戒指2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>法式吐司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吐司3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶强化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>处方药</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>红心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果不要可以删</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>灵药(消耗)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>凑HP,但防御从卡片拿好点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>卡片x6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>羁绊补血</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当然你也可以不要
-我想蹭蛋白粉加伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡片x7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>饰品的话用奶酪可以补</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>但我想挂机用线圈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御挂机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然说有点亏
-但也还行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋白粉4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>枕头5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>小结</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆棘护甲6(徽章)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩下的
-就可以自己补一点防御了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>或者堆一点暴击滚筒(</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击用药水给就行,+30%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP再高一点还可以
-换饰品补骰子+25%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后羁绊+12%,
-47%的暴击也能玩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>or招财猫+21%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>或者来玩元素大师</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>好像也可以</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛奶7(徽章)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后子弹大小换徽章补</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以多一个羁绊位装防御</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果+4%移速的话
-又可以换掉卡片堆防御</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -876,7 +736,128 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>或者直接防御</t>
+    <t>巨人戒指3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉鞋4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来就自由搭配了
+还想叠攻速的话
+好像就只有风车了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速2x1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片x1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速4x3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来就叠暴击了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方药(可选</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财猫6(徽章)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>望远镜7(徽章)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片/拿望远镜可以换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁绊/同望远镜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>都不用换望远镜,卡片换两子弹大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想了下
+可以用羁绊和卡片补
+牺牲一点暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速-投球手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投手的移速
+会转攻速
+所以还是可以叠一下看看的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里子弹大小肯定凑不够风车
+就不考虑了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶的效果目前
+可能不生效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率为移速x7.5%/x15%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑鞋和饮料大概
+就给9.75%的攻速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要达到30%的攻速需要200%的移速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>意思是我用2道具
+换10%不到的攻速吗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘到不想拉表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%的移速
+会加0.15%的攻速
+移速也确实会下降
+但钉鞋仍然生效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议ban掉正常玩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用高级滚筒气球可以换骰子</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +895,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,6 +905,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +978,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -994,25 +1008,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1284,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -1346,7 +1345,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1393,10 +1392,10 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="6"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1405,7 +1404,7 @@
       <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="U4" s="6"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -1417,7 +1416,7 @@
       <c r="Q5" s="1">
         <v>-2</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1432,13 +1431,13 @@
       <c r="T6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1447,16 +1446,21 @@
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
+      <c r="B9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="L9" s="1">
         <v>0.5</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1467,7 +1471,7 @@
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -1816,11 +1820,11 @@
         <f>460*2.9*7.5</f>
         <v>10005</v>
       </c>
-      <c r="R48" s="7" t="s">
+      <c r="R48" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P49" s="3">
@@ -1904,52 +1908,52 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6" t="s">
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="6" t="s">
+      <c r="I65" s="15"/>
+      <c r="J65" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="7" t="s">
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="7" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
@@ -1958,11 +1962,11 @@
       <c r="B67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="3" t="s">
         <v>53</v>
       </c>
@@ -1984,14 +1988,14 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="3" t="s">
         <v>36</v>
       </c>
@@ -2000,35 +2004,35 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
@@ -2175,27 +2179,27 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="7"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="15"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="15"/>
+      <c r="C84" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
@@ -2211,39 +2215,57 @@
       <c r="A90" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I92"/>
     <mergeCell ref="B91:E91"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="B93:E93"/>
@@ -2251,9 +2273,6 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C84:E84"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="B90:E90"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="A71:F71"/>
@@ -2266,6 +2285,7 @@
     <mergeCell ref="N65:P65"/>
     <mergeCell ref="N66:P66"/>
     <mergeCell ref="R48:T48"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2273,12 +2293,1041 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1257BE4E-3A44-4843-8806-D12F9EFE867E}">
+  <dimension ref="A1:U93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="18.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.25" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>500</v>
+      </c>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>400</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>2100</v>
+      </c>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="L9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="F13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-8</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="1">
+        <f>G15+G16+G17+G18+G19+G20+G21</f>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="12.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="1">
+        <f>G22*1.5</f>
+        <v>1.0050000000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B28" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C28" s="1">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="P28" s="3">
+        <f>440*2.1*7.5</f>
+        <v>6930</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P29" s="3">
+        <f>1.1*2.1*7.5</f>
+        <v>17.325000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1">
+        <v>140</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
+      <c r="P31" s="3">
+        <f>540*1.6*7</f>
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="P32" s="3">
+        <f>1.35*1.6*7</f>
+        <v>15.120000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1">
+        <v>140</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="P33" s="3">
+        <f>540*2.1*7</f>
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P34" s="3">
+        <f>1.35*2.1*7</f>
+        <v>19.845000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P35" s="3">
+        <f>440*2.2*7.5</f>
+        <v>7260.0000000000009</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P36" s="3">
+        <f>1.1*2.2*7.5</f>
+        <v>18.150000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P38" s="3">
+        <f>540*1.7*7</f>
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P39" s="3">
+        <f>1.35*1.7*7</f>
+        <v>16.064999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20</v>
+      </c>
+      <c r="P40" s="3">
+        <f>460*2.1*7.5</f>
+        <v>7245</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P41" s="3">
+        <f>1.15*2.1*7.5</f>
+        <v>18.112500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="P42" s="3">
+        <f>460*2.15*7.5</f>
+        <v>7417.5</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P43" s="3">
+        <f>1.15*2.15*7.5</f>
+        <v>18.543749999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P45" s="3">
+        <f>460*2.15*7.5*1.15</f>
+        <v>8530.125</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="P46" s="3">
+        <f>1.15*2.15*7.5*1.15</f>
+        <v>21.325312499999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q47" s="1">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P48" s="3">
+        <f>460*2.9*7.5</f>
+        <v>10005</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P49" s="3">
+        <f>1.15*2.9*7.5</f>
+        <v>25.012499999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P51" s="3">
+        <f>460*2.9*7.5*1.15</f>
+        <v>11505.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P52" s="3">
+        <f>1.15*2.9*7.5*1.15</f>
+        <v>28.764374999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P54" s="3">
+        <f>1210*2.15*7.5</f>
+        <v>19511.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P56" s="3">
+        <f>1210*1.65*7.5</f>
+        <v>14973.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" s="3">
+        <f>1210*2.4*7.5</f>
+        <v>21780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P60" s="3">
+        <f>1210*2.15*7.5*1.15</f>
+        <v>22437.9375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P62" s="3">
+        <f>1210*1.65*7.5*1.15</f>
+        <v>17219.8125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="P64" s="3">
+        <f>1210*2.4*7.5*1.15</f>
+        <v>25046.999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="J65" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A71" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A72" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A73" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A74" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B76" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C76" s="1">
+        <v>60</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="H76" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L76" s="1">
+        <f>1.75*(1+0.12)</f>
+        <v>1.9600000000000002</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" s="1">
+        <f>460*2.15*7.5</f>
+        <v>7417.5</v>
+      </c>
+      <c r="Q76" s="1">
+        <f>2+2+5+5+5+2+4+4</f>
+        <v>29</v>
+      </c>
+      <c r="R76" s="1">
+        <f>1.15*2.15*7.5</f>
+        <v>18.543749999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P77" s="1">
+        <f>460*2.9*7.5</f>
+        <v>10005</v>
+      </c>
+      <c r="R77" s="1">
+        <f>1.15*2.9*7.5</f>
+        <v>25.012499999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F78" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" s="1">
+        <f>460*1.65*7.5</f>
+        <v>5692.5</v>
+      </c>
+      <c r="R78" s="1">
+        <f>1.15*1.65*7.5</f>
+        <v>14.231249999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O79" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P79" s="1">
+        <f>460*2.15*7.5*1.15</f>
+        <v>8530.125</v>
+      </c>
+      <c r="R79" s="1">
+        <f>1.15*2.15*7.5*1.15</f>
+        <v>21.325312499999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="P80" s="1">
+        <f>460*2.9*7.5*1.15</f>
+        <v>11505.75</v>
+      </c>
+      <c r="R80" s="1">
+        <f>1.15*2.9*7.5*1.15</f>
+        <v>28.764374999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="P81" s="1">
+        <f>460*1.65*7.5*1.15</f>
+        <v>6546.3749999999991</v>
+      </c>
+      <c r="R81" s="1">
+        <f>1.15*1.65*7.5*1.15</f>
+        <v>16.365937499999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A82" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A83" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A84" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B91" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B92" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B93" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I92"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="R48:T48"/>
+    <mergeCell ref="A65:D66"/>
+    <mergeCell ref="E65:G66"/>
+    <mergeCell ref="H65:I66"/>
+    <mergeCell ref="J65:M66"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -2343,10 +3392,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2396,8 +3445,8 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -2409,10 +3458,10 @@
       <c r="R3" s="1">
         <v>-1</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -2427,8 +3476,8 @@
       <c r="R4" s="1">
         <v>-1</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -2440,7 +3489,7 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -2452,7 +3501,7 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -2464,7 +3513,7 @@
       <c r="Q7" s="1">
         <v>-5</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D8" s="1">
@@ -2479,7 +3528,7 @@
       <c r="S8" s="1">
         <v>-2</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -2587,12 +3636,12 @@
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="N23" s="1">
         <v>0.5</v>
       </c>
@@ -2700,7 +3749,8 @@
         <v>0.24</v>
       </c>
       <c r="L30" s="1">
-        <v>1.87</v>
+        <f>L2*(1+L15)</f>
+        <v>1.9600000000000002</v>
       </c>
       <c r="N30" s="1">
         <v>2.95</v>
@@ -2724,36 +3774,36 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2770,7 +3820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831663F1-A7F9-430A-84FB-444118A60796}">
   <dimension ref="A1:U13"/>
   <sheetViews>
@@ -2838,10 +3888,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2888,55 +3938,55 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T6" s="8"/>
-      <c r="U6" s="6"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T7" s="8"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T8" s="8"/>
-      <c r="U8" s="6"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T10" s="8"/>
+      <c r="T10" s="15"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T11" s="8"/>
+      <c r="T11" s="15"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T12" s="7"/>
+      <c r="T12" s="14"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T13" s="7"/>
+      <c r="T13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2953,7 +4003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAB80FE-1444-45D1-BF65-6E97F5AABA05}">
   <dimension ref="A1:U12"/>
   <sheetViews>
@@ -3021,10 +4071,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3071,40 +4121,40 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U5" s="6"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T9" s="6"/>
+      <c r="T9" s="13"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="T10" s="3" t="s">
@@ -3127,12 +4177,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810CB5AB-49A2-4F60-B096-B5564993F2B0}">
-  <dimension ref="A1:U44"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E4C85B-BC88-41A1-9CD2-B370257F8641}">
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -3150,7 +4200,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3195,10 +4245,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3245,832 +4295,281 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" s="6" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="S4" s="1">
-        <v>-2</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
+      <c r="A4" s="13"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="A5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="T6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" ht="21.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.5</v>
       </c>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="T10" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>-6</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="D11" s="1">
+        <v>60</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.1</v>
       </c>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>-6</v>
-      </c>
+    <row r="13" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>-5</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.1</v>
-      </c>
+      <c r="A16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7">
+        <v>-2</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
+        <v>-2</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6">
+        <v>2.95</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="1">
-        <v>210</v>
-      </c>
-      <c r="S18" s="1">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="13.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="1">
-        <v>400</v>
-      </c>
-      <c r="R19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>125</v>
+      <c r="S19" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="1">
-        <v>200</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="J20" s="1">
         <v>0.04</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="R20" s="1">
         <v>-1</v>
       </c>
-      <c r="U20" s="6"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="1">
-        <v>240</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>-5</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="1">
-        <v>180</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>-4</v>
-      </c>
-      <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="1">
-        <v>105</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C29" s="1">
-        <v>105</v>
-      </c>
-      <c r="D29" s="1">
-        <v>210</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1.87</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>-28</v>
-      </c>
-      <c r="R29" s="1">
-        <v>-2</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="E36" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2100</v>
-      </c>
-      <c r="N40" s="1">
-        <v>-0.04</v>
-      </c>
-      <c r="Q40" s="1">
-        <f>-4+9</f>
-        <v>5</v>
-      </c>
-      <c r="R40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T6:T9"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T24:T25"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E4C85B-BC88-41A1-9CD2-B370257F8641}">
-  <dimension ref="A1:U33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
-    <col min="2" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1">
-        <v>4</v>
-      </c>
-      <c r="S2" s="1">
-        <v>10</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="T6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" ht="21.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="J9" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="1">
-        <v>60</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="S11" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
-        <v>-2</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13">
-        <v>0.65</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13">
-        <v>-2</v>
-      </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12">
-        <v>2.95</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="S19" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R20" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="U20" s="8"/>
+      <c r="T20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" s="15"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
@@ -4082,12 +4581,12 @@
       <c r="R21" s="1">
         <v>-1</v>
       </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J22" s="1">
         <v>0.36</v>
@@ -4106,10 +4605,10 @@
       <c r="R23" s="1">
         <v>-1</v>
       </c>
-      <c r="T23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="U23" s="8"/>
+      <c r="T23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="U23" s="15"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -4124,110 +4623,125 @@
       <c r="R24" s="1">
         <v>-1</v>
       </c>
-      <c r="T24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="U24" s="8"/>
+      <c r="T24" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="U24" s="15"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="A26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11">
         <v>60</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="E26" s="11"/>
+      <c r="F26" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="11">
         <v>0.17</v>
       </c>
-      <c r="J26" s="1">
-        <v>1.339</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11">
+        <f>J9+J10+J12+J20+J21+J22+J27</f>
+        <v>1.819</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11">
+        <f>L2*(1+L9+L24)</f>
+        <v>1.6887500000000002</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11">
         <f>1+N27+N28+N29+N30+N31</f>
         <v>2.6949999999999998</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11">
         <v>-4</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="11">
         <v>0</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="11">
         <v>-10</v>
       </c>
-      <c r="T26" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="U26" s="8"/>
+      <c r="T26" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="U26" s="15"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="A27" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="7">
         <f>(N27+N28+N29+N30+N31)/5</f>
         <v>0.33899999999999997</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="6">
         <v>0.3</v>
       </c>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="N28" s="12">
+      <c r="A28" s="15"/>
+      <c r="N28" s="6">
         <v>0.17</v>
       </c>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="N29" s="12">
+      <c r="A29" s="15"/>
+      <c r="N29" s="6">
         <v>0.5</v>
       </c>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="N30" s="12">
+      <c r="A30" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N30" s="6">
         <v>0.16</v>
       </c>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="N31" s="12">
+      <c r="A31" s="15"/>
+      <c r="N31" s="6">
         <v>0.56499999999999995</v>
       </c>
-      <c r="T31" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="U31" s="8"/>
+      <c r="T31" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="U31" s="15"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T32" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="U32" s="8"/>
+      <c r="T32" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="U32" s="15"/>
     </row>
     <row r="33" spans="20:21" x14ac:dyDescent="0.15">
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="T32:U33"/>
     <mergeCell ref="A27:A29"/>
@@ -4236,6 +4750,7 @@
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="T24:U25"/>
     <mergeCell ref="T26:U30"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="T3:T4"/>
@@ -4250,10 +4765,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278EAF9B-E9D4-4BDF-AD61-BBFC9710B5FE}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -4316,10 +4831,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4366,134 +4881,88 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>34</v>
-      </c>
-      <c r="R3" s="1">
-        <v>4</v>
-      </c>
-      <c r="S3" s="1">
-        <v>10</v>
-      </c>
-      <c r="T3" s="6" t="s">
+      <c r="T2" s="14"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21" ht="77.45" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="6"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="U5" s="6"/>
+      <c r="A5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="T6" s="6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>60</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-2</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="13"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="T9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="T9" s="13"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="J10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-7.4999999999999997E-2</v>
+        <v>148</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>100</v>
@@ -4501,41 +4970,316 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="1">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="1">
-        <v>60</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="S12" s="1">
-        <v>-2</v>
-      </c>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P13" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="U17" s="13"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-6</v>
+      </c>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="R21" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9">
+        <v>60</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9">
+        <f>J4+J5+J7+J17+J18+J19+J20+J21</f>
+        <v>1.57</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9">
+        <f>L2*(1+L13+L4+L14+L21)</f>
+        <v>1.9337499999999999</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9">
+        <v>-18</v>
+      </c>
+      <c r="R22" s="9">
+        <v>-3</v>
+      </c>
+      <c r="S22" s="9">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R28" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="1">
+        <v>60</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G36" s="1">
+        <f>G34+G29+G28+G2</f>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1.855</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>-33</v>
+      </c>
+      <c r="R36" s="1">
+        <v>-4</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="T17:U20"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="T6:T9"/>
-    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4544,13 +5288,676 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513CEE40-9BA3-4602-888B-B55361B69DD8}">
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="T3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="T5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T8" s="15"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T9" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T10" s="13"/>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="15"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T14" s="13"/>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="T15" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="1:22" ht="13.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="T19" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="U19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="T23" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="T27" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="T28" s="15"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="T29" s="15"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="T30" s="15"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="T31" s="15"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="5"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="T27:T31"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U15:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="T9:T14"/>
+    <mergeCell ref="U9:U14"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:H35"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810CB5AB-49A2-4F60-B096-B5564993F2B0}">
+  <dimension ref="A1:U44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="15.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="14"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="13"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="U5" s="13"/>
+    </row>
+    <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="13"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="U20" s="13"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="T24" s="13"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="5"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35"/>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T24:T25"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/问deepseek没用,拉个表看看.xlsx
+++ b/问deepseek没用,拉个表看看.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一些资源\尝试汉化\mobmania\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962A6B8-8357-4758-A476-4984BF68A62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38185F30-705D-4507-A5DF-DDE83FF56080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="394" yWindow="435" windowWidth="16696" windowHeight="11914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暴击" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="165">
   <si>
     <t>正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -740,10 +740,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>钉鞋4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>接下来就自由搭配了
 还想叠攻速的话
 好像就只有风车了</t>
@@ -858,6 +854,14 @@
   </si>
   <si>
     <t>用高级滚筒气球可以换骰子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉鞋4/算了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击钉鞋换闹钟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1000,13 +1004,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1345,7 +1349,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1392,10 +1396,10 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -1404,7 +1408,7 @@
       <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="U4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -1416,7 +1420,7 @@
       <c r="Q5" s="1">
         <v>-2</v>
       </c>
-      <c r="U5" s="13"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -1431,13 +1435,13 @@
       <c r="T6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="U7" s="13"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -1446,21 +1450,21 @@
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
-      <c r="U8" s="13"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="L9" s="1">
         <v>0.5</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1471,7 +1475,7 @@
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
-      <c r="U10" s="14"/>
+      <c r="U10" s="13"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -1820,11 +1824,11 @@
         <f>460*2.9*7.5</f>
         <v>10005</v>
       </c>
-      <c r="R48" s="14" t="s">
+      <c r="R48" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P49" s="3">
@@ -1908,52 +1912,52 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="13" t="s">
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="13" t="s">
+      <c r="I65" s="14"/>
+      <c r="J65" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="14" t="s">
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="14" t="s">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
@@ -1962,11 +1966,11 @@
       <c r="B67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="3" t="s">
         <v>53</v>
       </c>
@@ -1988,14 +1992,14 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="3" t="s">
         <v>36</v>
       </c>
@@ -2004,35 +2008,35 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
@@ -2179,27 +2183,27 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="14"/>
+      <c r="B82" s="13"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="14" t="s">
+      <c r="B84" s="14"/>
+      <c r="C84" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
@@ -2215,64 +2219,53 @@
       <c r="A90" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I92"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:E84"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="A71:F71"/>
@@ -2286,6 +2279,17 @@
     <mergeCell ref="N66:P66"/>
     <mergeCell ref="R48:T48"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:I92"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,7 +2377,7 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2420,10 +2424,10 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -2432,7 +2436,7 @@
       <c r="B4" s="1">
         <v>500</v>
       </c>
-      <c r="U4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -2444,7 +2448,7 @@
       <c r="Q5" s="1">
         <v>-2</v>
       </c>
-      <c r="U5" s="13"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -2459,13 +2463,13 @@
       <c r="T6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>2100</v>
       </c>
-      <c r="U7" s="13"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -2474,21 +2478,21 @@
       <c r="F8" s="1">
         <v>0.5</v>
       </c>
-      <c r="U8" s="13"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" ht="58.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="L9" s="1">
         <v>0.5</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U9" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2499,7 +2503,7 @@
       <c r="F10" s="1">
         <v>0.5</v>
       </c>
-      <c r="U10" s="14"/>
+      <c r="U10" s="13"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -2848,11 +2852,11 @@
         <f>460*2.9*7.5</f>
         <v>10005</v>
       </c>
-      <c r="R48" s="14" t="s">
+      <c r="R48" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="P49" s="3">
@@ -2936,52 +2940,52 @@
       </c>
     </row>
     <row r="65" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="13" t="s">
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I65" s="15"/>
-      <c r="J65" s="13" t="s">
+      <c r="I65" s="14"/>
+      <c r="J65" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="14" t="s">
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="14" t="s">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
@@ -2990,11 +2994,11 @@
       <c r="B67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="3" t="s">
         <v>53</v>
       </c>
@@ -3016,14 +3020,14 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="3" t="s">
         <v>36</v>
       </c>
@@ -3032,35 +3036,35 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B75" s="1" t="s">
@@ -3208,27 +3212,27 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="14"/>
+      <c r="B82" s="13"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="15"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="14" t="s">
+      <c r="B84" s="14"/>
+      <c r="C84" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
@@ -3244,67 +3248,53 @@
       <c r="A90" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:I92"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A82:B82"/>
     <mergeCell ref="U1:U8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="U9:U10"/>
@@ -3315,6 +3305,20 @@
     <mergeCell ref="J65:M66"/>
     <mergeCell ref="N65:P65"/>
     <mergeCell ref="N66:P66"/>
+    <mergeCell ref="F90:I92"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="B90:E90"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,10 +3396,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3445,8 +3449,8 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -3458,10 +3462,10 @@
       <c r="R3" s="1">
         <v>-1</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -3476,8 +3480,8 @@
       <c r="R4" s="1">
         <v>-1</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -3489,7 +3493,7 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
-      <c r="U5" s="13"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -3501,7 +3505,7 @@
       <c r="S6" s="1">
         <v>-1</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -3513,7 +3517,7 @@
       <c r="Q7" s="1">
         <v>-5</v>
       </c>
-      <c r="U7" s="13"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="D8" s="1">
@@ -3528,7 +3532,7 @@
       <c r="S8" s="1">
         <v>-2</v>
       </c>
-      <c r="U8" s="13"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -3636,12 +3640,12 @@
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="N23" s="1">
         <v>0.5</v>
       </c>
@@ -3774,36 +3778,36 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3888,10 +3892,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3938,55 +3942,55 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="U5" s="13"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T6" s="15"/>
-      <c r="U6" s="13"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T7" s="15"/>
-      <c r="U7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T8" s="15"/>
-      <c r="U8" s="13"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T9" s="13" t="s">
+      <c r="T9" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T10" s="15"/>
+      <c r="T10" s="14"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T11" s="15"/>
+      <c r="T11" s="14"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T12" s="14"/>
+      <c r="T12" s="13"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T13" s="14"/>
+      <c r="T13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4071,10 +4075,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4121,40 +4125,40 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="U5" s="13"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T9" s="13"/>
+      <c r="T9" s="15"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="T10" s="3" t="s">
@@ -4245,10 +4249,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4295,43 +4299,43 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="T6" s="13" t="s">
+      <c r="A6" s="15"/>
+      <c r="T6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" ht="21.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -4343,7 +4347,7 @@
       <c r="L9" s="1">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="T9" s="13"/>
+      <c r="T9" s="15"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -4566,10 +4570,10 @@
       <c r="R20" s="1">
         <v>-1</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="U20" s="15"/>
+      <c r="U20" s="14"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
@@ -4581,8 +4585,8 @@
       <c r="R21" s="1">
         <v>-1</v>
       </c>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
@@ -4605,10 +4609,10 @@
       <c r="R23" s="1">
         <v>-1</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="T23" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="U23" s="15"/>
+      <c r="U23" s="14"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -4623,14 +4627,14 @@
       <c r="R24" s="1">
         <v>-1</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="U24" s="15"/>
+      <c r="U24" s="14"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
@@ -4675,13 +4679,13 @@
       <c r="S26" s="11">
         <v>-10</v>
       </c>
-      <c r="T26" s="13" t="s">
+      <c r="T26" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="U26" s="15"/>
+      <c r="U26" s="14"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>135</v>
       </c>
       <c r="J27" s="7">
@@ -4691,57 +4695,62 @@
       <c r="N27" s="6">
         <v>0.3</v>
       </c>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="N28" s="6">
         <v>0.17</v>
       </c>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
+      <c r="A29" s="14"/>
       <c r="N29" s="6">
         <v>0.5</v>
       </c>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
-        <v>163</v>
+      <c r="A30" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="N30" s="6">
         <v>0.16</v>
       </c>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="N31" s="6">
         <v>0.56499999999999995</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="T31" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="U31" s="15"/>
+      <c r="U31" s="14"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T32" s="14" t="s">
+      <c r="T32" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="U32" s="15"/>
+      <c r="U32" s="14"/>
     </row>
     <row r="33" spans="20:21" x14ac:dyDescent="0.15">
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="T31:U31"/>
     <mergeCell ref="T32:U33"/>
     <mergeCell ref="A27:A29"/>
@@ -4751,11 +4760,6 @@
     <mergeCell ref="T24:U25"/>
     <mergeCell ref="T26:U30"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T6:T9"/>
-    <mergeCell ref="A3:A8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4765,10 +4769,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278EAF9B-E9D4-4BDF-AD61-BBFC9710B5FE}">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -4831,10 +4835,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4881,17 +4885,17 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="77.45" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
@@ -4903,8 +4907,8 @@
       <c r="L4" s="1">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -4913,7 +4917,7 @@
       <c r="J5" s="1">
         <v>0.5</v>
       </c>
-      <c r="U5" s="13"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
@@ -4925,10 +4929,10 @@
       <c r="S6" s="1">
         <v>-2</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
@@ -4937,8 +4941,8 @@
       <c r="J7" s="1">
         <v>0.1</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
@@ -4947,16 +4951,16 @@
       <c r="F8" s="1">
         <v>0.1</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="T9" s="13"/>
+      <c r="T9" s="15"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N10" s="1">
         <v>0.06</v>
@@ -4981,7 +4985,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L13" s="1">
         <v>0.02</v>
@@ -4992,7 +4996,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="1">
         <v>0.12</v>
@@ -5003,7 +5007,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F15" s="1">
         <v>0.5</v>
@@ -5019,10 +5023,10 @@
       <c r="R17" s="1">
         <v>-1</v>
       </c>
-      <c r="T17" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="U17" s="13"/>
+      <c r="T17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="U17" s="15"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -5034,12 +5038,12 @@
       <c r="S18" s="1">
         <v>-6</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J19" s="1">
         <v>0.05</v>
@@ -5047,12 +5051,12 @@
       <c r="S19" s="1">
         <v>-1</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J20" s="1">
         <v>0.04</v>
@@ -5063,8 +5067,8 @@
       <c r="R20" s="1">
         <v>-1</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
@@ -5123,7 +5127,7 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="1">
         <v>-6</v>
@@ -5131,7 +5135,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
@@ -5161,7 +5165,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29" s="1">
         <v>0.25</v>
@@ -5169,7 +5173,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" s="1">
         <v>0.16500000000000001</v>
@@ -5183,7 +5187,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N35" s="1">
         <v>0.5</v>
@@ -5194,7 +5198,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D36" s="1">
         <v>60</v>
@@ -5271,6 +5275,11 @@
       </c>
       <c r="S37" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5310,7 +5319,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5355,10 +5364,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5405,207 +5414,207 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="T5" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="U5" s="13"/>
+      <c r="T5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="13"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="13"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T8" s="15"/>
-      <c r="U8" s="13"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T9" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="U9" s="14" t="s">
-        <v>156</v>
+      <c r="T9" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T10" s="13"/>
-      <c r="U10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="14"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="T14" s="13"/>
-      <c r="U14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="14"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="T15" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>161</v>
+      <c r="T15" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="14"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="14"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="14"/>
     </row>
     <row r="19" spans="1:22" ht="13.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="T19" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="U19" s="15"/>
+      <c r="T19" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="U19" s="14"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="15"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="14"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="14"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="15"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="14"/>
     </row>
     <row r="23" spans="1:22" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="T23" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="V23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="T23" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="V23" s="14"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
-      <c r="T25" s="13"/>
+      <c r="T25" s="15"/>
       <c r="U25" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
-      <c r="T26" s="13"/>
+      <c r="T26" s="15"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
-      <c r="T27" s="14" t="s">
-        <v>160</v>
+      <c r="T27" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
-      <c r="T28" s="15"/>
+      <c r="T28" s="14"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
-      <c r="T29" s="15"/>
+      <c r="T29" s="14"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="T30" s="15"/>
+      <c r="A30" s="15"/>
+      <c r="T30" s="14"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="T31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="T31" s="14"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="5"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
@@ -5620,24 +5629,13 @@
       <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="T23:T26"/>
-    <mergeCell ref="T27:T31"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="T15:T18"/>
-    <mergeCell ref="T19:T22"/>
-    <mergeCell ref="U15:U22"/>
-    <mergeCell ref="U23:U24"/>
     <mergeCell ref="E36:F37"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="T5:T8"/>
@@ -5649,6 +5647,17 @@
     <mergeCell ref="B34:D35"/>
     <mergeCell ref="E34:F35"/>
     <mergeCell ref="G34:H35"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="T15:T18"/>
+    <mergeCell ref="T19:T22"/>
+    <mergeCell ref="U15:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="T23:T26"/>
+    <mergeCell ref="T27:T31"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5724,10 +5733,10 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5774,41 +5783,41 @@
       <c r="S2" s="1">
         <v>10</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="13"/>
+      <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="12.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="13"/>
+      <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
+      <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="T9" s="12"/>
@@ -5843,11 +5852,11 @@
     <row r="19" spans="1:21" ht="13.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="13"/>
+      <c r="U19" s="15"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="U20" s="13"/>
+      <c r="U20" s="15"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
@@ -5855,16 +5864,16 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
-      <c r="T24" s="13"/>
+      <c r="T24" s="15"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
-      <c r="T25" s="15"/>
+      <c r="T25" s="14"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
@@ -5879,48 +5888,48 @@
       <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
+      <c r="A30" s="15"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
+      <c r="A32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="5"/>
       <c r="J34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
       <c r="I35"/>
       <c r="J35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
@@ -5935,13 +5944,20 @@
       <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="T24:T25"/>
     <mergeCell ref="E36:F37"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B23:C23"/>
@@ -5950,13 +5966,6 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:D35"/>
     <mergeCell ref="E34:F35"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="T24:T25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
